--- a/Administration/Documentation/flynet_requirements.xlsx
+++ b/Administration/Documentation/flynet_requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31280" yWindow="1240" windowWidth="26980" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="820" windowWidth="26980" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Level 1 Requirements</t>
   </si>
@@ -42,42 +42,12 @@
     <t>COM</t>
   </si>
   <si>
-    <t>NTC</t>
-  </si>
-  <si>
     <t>CNT</t>
   </si>
   <si>
     <t>PLN</t>
   </si>
   <si>
-    <t>Search for (multiple?)(mobile?) targets</t>
-  </si>
-  <si>
-    <t>Once a target has been found, track that targets position until a tag for capture command has been initialized</t>
-  </si>
-  <si>
-    <t>Communicate data among the team of drones to be used for path planning and search</t>
-  </si>
-  <si>
-    <t>Non-traditional control. Gestures, Occulus Rift, Voice commands, etc.</t>
-  </si>
-  <si>
-    <t>Have reliable, robust control in a variety of harsh/contested environments</t>
-  </si>
-  <si>
-    <t>Dynamically allocate quads to plan search paths looking for moving targets that may be evasive using dynamic re-planning. Also handle tracking found targets and searching for new ones.</t>
-  </si>
-  <si>
-    <t>Tag target for capture, neutralization. Laser pointer, marker, etc. These are just guesses.</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Verification Test</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,20 +66,59 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Nontraditional control</t>
-  </si>
-  <si>
     <t>Robust Control</t>
   </si>
   <si>
-    <t>Dynamic replanning</t>
+    <t>Must visually identify targets (i.e. not with the tags)</t>
+  </si>
+  <si>
+    <t>Perform fully autonomous search in unmapped territory with static obstacles</t>
+  </si>
+  <si>
+    <t>At least one target must tracked after it is identified</t>
+  </si>
+  <si>
+    <t>Must share information on map/obstacles/target information with other agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify target using some form of tagging (pre-tagged targets), e.g. RFID tags </t>
+  </si>
+  <si>
+    <t>Reliable indoor flight</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Coordinate team to optimally map and search for targets</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>15-20 minute flight times</t>
+  </si>
+  <si>
+    <t>At least 2 vehicles, at least one quadrotor</t>
+  </si>
+  <si>
+    <t>Other requirements that fit into level 2/3 requirements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous localization and mapping (SLAM) </t>
+  </si>
+  <si>
+    <t>Reliable obstacle avoidance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +130,22 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,22 +187,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -523,153 +560,169 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="20">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="20">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Administration/Documentation/flynet_requirements.xlsx
+++ b/Administration/Documentation/flynet_requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="820" windowWidth="26980" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Level 1 Requirements</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Perform fully autonomous search in unmapped territory with static obstacles</t>
   </si>
   <si>
-    <t>At least one target must tracked after it is identified</t>
-  </si>
-  <si>
     <t>Must share information on map/obstacles/target information with other agents</t>
   </si>
   <si>
@@ -99,26 +96,41 @@
     <t>MSN</t>
   </si>
   <si>
-    <t>15-20 minute flight times</t>
-  </si>
-  <si>
     <t>At least 2 vehicles, at least one quadrotor</t>
   </si>
   <si>
-    <t>Other requirements that fit into level 2/3 requirements:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simultaneous localization and mapping (SLAM) </t>
-  </si>
-  <si>
-    <t>Reliable obstacle avoidance</t>
+    <t>Requirement Type</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>At least one target must be tracked after it is identified</t>
+  </si>
+  <si>
+    <t>10-15 minute flight times</t>
+  </si>
+  <si>
+    <t>Onboard processing</t>
+  </si>
+  <si>
+    <t>1 lb additional payload</t>
+  </si>
+  <si>
+    <t>Level 2 Requirements</t>
+  </si>
+  <si>
+    <t>Level 1 Requirement Tag</t>
+  </si>
+  <si>
+    <t>Level 2 Requirement #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +160,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -163,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,35 +204,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
@@ -560,15 +622,16 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="20">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="20">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,145 +644,330 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
